--- a/data/trans_dic/P2403-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2403-Habitat-trans_dic.xlsx
@@ -572,7 +572,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="I2" s="3" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="K2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -732,7 +732,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -842,7 +842,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -952,7 +952,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_dic/P2403-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2403-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,58%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7,19%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4,2%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,42%</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>0,0; 9,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>3,1; 14,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,52</t>
+          <t>1,65; 9,28</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>0; 1,49</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>0; 1,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>0,0; 8,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,86</t>
+          <t>0,0; 4,65</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>1,67; 6,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,52</t>
+          <t>1,28; 6,64</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,35%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>1,89%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2,55%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,43%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,89%</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>0,0; 1,29</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>0,93; 3,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>1,43; 4,16</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,37</t>
+          <t>0; 0,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,48</t>
+          <t>0,37; 2,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,04</t>
+          <t>0,46; 2,74</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>0,0; 0,7</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>0,81; 2,19</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>1,17; 2,9</t>
         </is>
       </c>
     </row>
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>0,22%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>3,08%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,16%</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,51</t>
+          <t>0,0; 0,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>2,07; 4,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>1,67; 3,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>0,39; 1,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>1,02; 2,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>0,0; 0,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,39; 2,82</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>1,54; 2,91</t>
         </is>
       </c>
     </row>
@@ -967,42 +967,42 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>2,02%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>1,78%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0,63%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,2%</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,8</t>
+          <t>0; 0,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,67</t>
+          <t>1,17; 3,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>1,05; 2,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,08</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>0,28; 1,89</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,65</t>
+          <t>0,25; 1,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>0,84; 2,07</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,72; 1,84</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,83%</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,45</t>
+          <t>0,19; 1,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>1,87; 4,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>2,09; 4,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>0,0; 0,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>0,36; 1,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>1,76; 3,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>0,18; 0,77</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>1,13; 2,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>2,11; 3,69</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,14%</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0,2; 0,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>2,16; 3,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>2,06; 3,14</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>0,0; 0,23</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0,54; 1,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>1,27; 2,15</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>0,13; 0,37</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>1,4; 2,05</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>1,82; 2,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P2403-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P2403-Habitat-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,17 +632,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>2,83%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,27 +652,27 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>0,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>2,15%</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,18</t>
+          <t>0,15; 2,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,1; 14,68</t>
+          <t>1,69; 4,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 9,28</t>
+          <t>1,75; 4,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,49</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 1,92</t>
+          <t>0,29; 1,75</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,74</t>
+          <t>0,63; 2,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,65</t>
+          <t>0,08; 0,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>1,67; 6,92</t>
+          <t>1,1; 2,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,28; 6,64</t>
+          <t>1,45; 3,14</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,17 +742,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,55%</t>
+          <t>2,59%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -762,27 +762,27 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,18%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1,89%</t>
+          <t>2,16%</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,29</t>
+          <t>0,0; 0,8</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 3,31</t>
+          <t>2,07; 4,51</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,43; 4,16</t>
+          <t>1,67; 3,9</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,34</t>
+          <t>0; 0,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 2,06</t>
+          <t>0,39; 1,84</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 2,74</t>
+          <t>1,02; 2,88</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,7</t>
+          <t>0,0; 0,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,81; 2,19</t>
+          <t>1,39; 2,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,17; 2,9</t>
+          <t>1,54; 2,91</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,17 +852,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -872,27 +872,27 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>1,2%</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,8</t>
+          <t>0; 0,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,07; 4,51</t>
+          <t>1,17; 3,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,67; 3,9</t>
+          <t>1,05; 2,88</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>0; 0,28</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,84</t>
+          <t>0,28; 1,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,02; 2,88</t>
+          <t>0,25; 1,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,41</t>
+          <t>0; 0,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,39; 2,82</t>
+          <t>0,84; 2,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,54; 2,91</t>
+          <t>0,72; 1,84</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1,2%</t>
+          <t>2,83%</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>0,19; 1,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,17; 3,37</t>
+          <t>1,87; 4,35</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,05; 2,88</t>
+          <t>2,09; 4,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>0,0; 0,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,89</t>
+          <t>0,36; 1,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,25; 1,49</t>
+          <t>1,76; 3,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>0,18; 0,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0,84; 2,07</t>
+          <t>1,13; 2,29</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,72; 1,84</t>
+          <t>2,11; 3,69</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,7%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,06%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,73%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,83%</t>
+          <t>2,14%</t>
         </is>
       </c>
     </row>
@@ -1125,169 +1125,59 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,14</t>
+          <t>0,2; 0,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,87; 4,35</t>
+          <t>2,16; 3,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,56</t>
+          <t>2,06; 3,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,8</t>
+          <t>0,0; 0,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,36; 1,38</t>
+          <t>0,54; 1,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 3,85</t>
+          <t>1,27; 2,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,18; 0,77</t>
+          <t>0,13; 0,37</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,13; 2,29</t>
+          <t>1,4; 2,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>2,11; 3,69</t>
+          <t>1,82; 2,52</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,38%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>2,68%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,57%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,06%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,79%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>1,72%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,22%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>1,72%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>2,14%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,2; 0,67</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,16; 3,36</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,06; 3,14</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 0,23</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,54; 1,21</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>1,27; 2,15</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,13; 0,37</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>1,4; 2,05</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>1,82; 2,52</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1297,7 +1187,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
